--- a/Documenti/TIRT.xlsx
+++ b/Documenti/TIRT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Desktop\Silvio\uni\ingegneria del software\2021\ProgettoIS\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F432809A-C61B-40A5-A6AF-B2C56B120DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FD6D8F-13B3-4F51-94B6-423281434EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11064" yWindow="336" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="5760" yWindow="336" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Test Incident Report</t>
   </si>
@@ -202,12 +202,21 @@
   </si>
   <si>
     <t>TI_AC_17_14</t>
+  </si>
+  <si>
+    <t>Silvio Pastore</t>
+  </si>
+  <si>
+    <t>Passato</t>
+  </si>
+  <si>
+    <t>Non Passato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,6 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -623,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +646,8 @@
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -683,6 +694,15 @@
       <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -691,6 +711,15 @@
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -699,6 +728,15 @@
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -707,6 +745,12 @@
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44591</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -715,6 +759,12 @@
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44591</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -722,6 +772,12 @@
       </c>
       <c r="B8" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44591</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">

--- a/Documenti/TIRT.xlsx
+++ b/Documenti/TIRT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Desktop\Silvio\uni\ingegneria del software\2021\ProgettoIS\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FD6D8F-13B3-4F51-94B6-423281434EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B487D92F-D06D-4C54-BB4A-8C9C2F3A5386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="336" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>Test Incident Report</t>
   </si>
@@ -324,7 +324,68 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -637,7 +698,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,6 +812,9 @@
       <c r="E6" s="10">
         <v>44591</v>
       </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -765,6 +829,9 @@
       <c r="E7" s="10">
         <v>44591</v>
       </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -779,6 +846,9 @@
       <c r="E8" s="10">
         <v>44591</v>
       </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -787,6 +857,15 @@
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -795,6 +874,15 @@
       <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -803,6 +891,15 @@
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -811,6 +908,15 @@
       <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -819,6 +925,15 @@
       <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -827,6 +942,15 @@
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -835,6 +959,15 @@
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -843,97 +976,216 @@
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F27">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>$D$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Passato"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Non Passato"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Documenti/TIRT.xlsx
+++ b/Documenti/TIRT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Desktop\Silvio\uni\ingegneria del software\2021\ProgettoIS\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B487D92F-D06D-4C54-BB4A-8C9C2F3A5386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59851C84-AE8C-4064-A0D4-6D56897E8A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="336" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>Test Incident Report</t>
   </si>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -320,11 +320,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -362,6 +373,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -698,7 +729,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,6 +740,9 @@
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -764,6 +798,15 @@
       <c r="F3" t="s">
         <v>57</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -779,7 +822,16 @@
         <v>44591</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -795,8 +847,17 @@
       <c r="E5" s="10">
         <v>44591</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>58</v>
+      <c r="F5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -815,6 +876,15 @@
       <c r="F6" t="s">
         <v>57</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -832,6 +902,15 @@
       <c r="F7" t="s">
         <v>58</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -849,6 +928,15 @@
       <c r="F8" t="s">
         <v>57</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -866,6 +954,15 @@
       <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -883,6 +980,15 @@
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -900,6 +1006,15 @@
       <c r="F11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -917,6 +1032,15 @@
       <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -934,6 +1058,15 @@
       <c r="F13" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -951,6 +1084,15 @@
       <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -968,6 +1110,15 @@
       <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -985,8 +1136,17 @@
       <c r="F16" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1002,8 +1162,17 @@
       <c r="F17" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1019,8 +1188,17 @@
       <c r="F18" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1036,8 +1214,17 @@
       <c r="F19" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1053,8 +1240,17 @@
       <c r="F20" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1070,8 +1266,17 @@
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1087,8 +1292,17 @@
       <c r="F22" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1104,8 +1318,17 @@
       <c r="F23" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1121,8 +1344,17 @@
       <c r="F24" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1138,8 +1370,17 @@
       <c r="F25" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1155,8 +1396,17 @@
       <c r="F26" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1170,20 +1420,40 @@
         <v>44591</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:F27">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>$D$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Passato"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Non Passato"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Non Passato"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Passato"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Non Passato"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$D$11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documenti/TIRT.xlsx
+++ b/Documenti/TIRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Desktop\Silvio\uni\ingegneria del software\2021\ProgettoIS\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59851C84-AE8C-4064-A0D4-6D56897E8A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA389758-2AF6-4CEA-9536-603E8B8769D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="336" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="63">
   <si>
     <t>Test Incident Report</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>Non Passato</t>
+  </si>
+  <si>
+    <t>TC_AC_17_15</t>
+  </si>
+  <si>
+    <t>TI_AC_17_15</t>
+  </si>
+  <si>
+    <t>TC_AC_17_16</t>
+  </si>
+  <si>
+    <t>TI_AC_17_16</t>
   </si>
 </sst>
 </file>
@@ -325,7 +337,27 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -333,6 +365,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -383,6 +475,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -726,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,9 +845,12 @@
     <col min="8" max="8" width="12.44140625" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +861,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -781,8 +886,17 @@
       <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -807,8 +921,17 @@
       <c r="J3" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -833,8 +956,17 @@
       <c r="J4" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -859,8 +991,17 @@
       <c r="J5" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -885,8 +1026,17 @@
       <c r="J6" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -911,8 +1061,17 @@
       <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -937,8 +1096,17 @@
       <c r="J8" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -963,8 +1131,17 @@
       <c r="J9" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -989,8 +1166,17 @@
       <c r="J10" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1015,8 +1201,17 @@
       <c r="J11" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1041,8 +1236,17 @@
       <c r="J12" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1271,17 @@
       <c r="J13" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1093,8 +1306,17 @@
       <c r="J14" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1119,8 +1341,17 @@
       <c r="J15" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1145,8 +1376,17 @@
       <c r="J16" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1171,8 +1411,17 @@
       <c r="J17" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1197,8 +1446,17 @@
       <c r="J18" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1223,8 +1481,17 @@
       <c r="J19" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1249,8 +1516,17 @@
       <c r="J20" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1275,8 +1551,17 @@
       <c r="J21" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1301,8 +1586,17 @@
       <c r="J22" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1327,8 +1621,17 @@
       <c r="J23" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1353,8 +1656,17 @@
       <c r="J24" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1379,8 +1691,17 @@
       <c r="J25" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1403,10 +1724,19 @@
         <v>44601</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1430,29 +1760,152 @@
       </c>
       <c r="J27" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="10">
+        <v>44591</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="10">
+        <v>44601</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:F27">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>$D$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Passato"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"Non Passato"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J27">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Non Passato"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Passato"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>$D$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N27">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Non Passato"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Passato"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>$D$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F29">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Non Passato"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Passato"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>$D$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Non Passato"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Passato"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>$D$11</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="N28:N29">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Non Passato"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Passato"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$D$11</formula>
     </cfRule>
   </conditionalFormatting>
